--- a/experimentresources/interventionsauto/makehappier.xlsx
+++ b/experimentresources/interventionsauto/makehappier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chattoolTG\chattoolTG\experimentresources\interventionsauto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chattoolTG\experimentresources\interventionsauto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96021361-AC0B-4095-868B-F4FED5188F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36770E4-AC47-4904-A68B-A91DF30790B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="1020" windowWidth="20016" windowHeight="7488" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="1224" windowWidth="19020" windowHeight="13344" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="5" r:id="rId1"/>
@@ -13848,7 +13848,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13858,6 +13857,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14150,261 +14150,261 @@
   </cols>
   <sheetData>
     <row r="10" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>4553</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14443,20 +14443,20 @@
   <sheetData>
     <row r="1" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>3043</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -22441,20 +22441,20 @@
   <sheetData>
     <row r="1" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>3049</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -22614,11 +22614,11 @@
         <v>3048</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>3050</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
@@ -30510,20 +30510,20 @@
   <sheetData>
     <row r="1" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>3051</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -38500,206 +38500,211 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="24.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="23" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>4552</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
     </row>
